--- a/lab_3_telecom-Probability of Infinity channel.xlsx
+++ b/lab_3_telecom-Probability of Infinity channel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT_JU_43_study\IIT 7th semester-5th batch@TAJ\Telecom - Abul Sir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\telecommunication_lab\telecommunication_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,6 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -289,7 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2470,15 +2470,15 @@
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.19474233143327802</v>
+        <v>0.96330130064720321</v>
       </c>
       <c r="D3">
         <f ca="1">-12*LN(1-C3)</f>
-        <v>2.5991156112462326</v>
+        <v>39.660167574334949</v>
       </c>
       <c r="E3">
         <f ca="1">D3</f>
-        <v>2.5991156112462326</v>
+        <v>39.660167574334949</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -2490,15 +2490,15 @@
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4">
         <f t="shared" ref="C4:C67" ca="1" si="0">RAND()</f>
-        <v>0.50744567217764225</v>
+        <v>0.85593767979989266</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D67" ca="1" si="1">-12*LN(1-C4)</f>
-        <v>8.4978061698542824</v>
+        <v>23.250111526327409</v>
       </c>
       <c r="E4">
         <f ca="1">E3+D4</f>
-        <v>11.096921781100516</v>
+        <v>62.910279100662358</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2511,15 +2511,15 @@
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51641282131709199</v>
+        <v>0.65139753910171838</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7182840739415646</v>
+        <v>12.645877038548214</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E68" ca="1" si="2">E4+D5</f>
-        <v>19.81520585504208</v>
+        <v>75.556156139210572</v>
       </c>
       <c r="G5">
         <f>100+G4</f>
@@ -2533,15 +2533,15 @@
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9108677724105313</v>
+        <v>0.50536958783924013</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>29.011611702752351</v>
+        <v>8.4473332486674781</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>48.826817557794428</v>
+        <v>84.003489387878048</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G69" si="3">100+G5</f>
@@ -2555,15 +2555,15 @@
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51941914004122658</v>
+        <v>0.19268970191956969</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7931173813249046</v>
+        <v>2.5685661175477907</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>57.619934939119332</v>
+        <v>86.572055505425837</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
@@ -2577,15 +2577,15 @@
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65614752225859463</v>
+        <v>0.18172786228613003</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>12.81051068836215</v>
+        <v>2.4067237321867676</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>70.430445627481475</v>
+        <v>88.978779237612599</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
@@ -2599,15 +2599,15 @@
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84469080400605867</v>
+        <v>0.97935268066361181</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>22.348048034350978</v>
+        <v>46.56203738664216</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>92.778493661832456</v>
+        <v>135.54081662425477</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
@@ -2621,15 +2621,15 @@
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90402293137564527</v>
+        <v>0.32900772508645149</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>28.123751814530745</v>
+        <v>4.7879718584787359</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>120.90224547636321</v>
+        <v>140.3287884827335</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
@@ -2643,15 +2643,15 @@
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25849663704258752</v>
+        <v>0.82447159274991755</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5889069848478652</v>
+        <v>20.879452614024657</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>124.49115246121107</v>
+        <v>161.20824109675817</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -2665,15 +2665,15 @@
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20604318206497785</v>
+        <v>0.8494759221696021</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7687144562345085</v>
+        <v>22.723586664065955</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>127.25986691744558</v>
+        <v>183.93182776082412</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
@@ -2687,15 +2687,15 @@
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72880262672530327</v>
+        <v>0.68284448619277383</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>15.658900902336955</v>
+        <v>13.780356546795369</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>142.91876781978254</v>
+        <v>197.71218430761948</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
@@ -2709,15 +2709,15 @@
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59600477331909629</v>
+        <v>0.86869888537988282</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>10.876226594844772</v>
+        <v>24.363144103195388</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>153.79499441462733</v>
+        <v>222.07532841081488</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
@@ -2731,15 +2731,15 @@
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3454063297411053</v>
+        <v>0.41809775455683384</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0848870391256629</v>
+        <v>6.4974337021699409</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>158.879881453753</v>
+        <v>228.5727621129848</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
@@ -2753,15 +2753,15 @@
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34115724686213533</v>
+        <v>0.26105759131300088</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0072446477306682</v>
+        <v>3.630423509785361</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>163.88712610148366</v>
+        <v>232.20318562277018</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
@@ -2775,15 +2775,15 @@
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57170007936255474</v>
+        <v>0.53301483182681741</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.175178955889734</v>
+        <v>9.1374933794167017</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>174.06230505737341</v>
+        <v>241.34067900218687</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
@@ -2797,15 +2797,15 @@
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21618879639017985</v>
+        <v>3.9031270748862368E-2</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9230451922443508</v>
+        <v>0.47776092410857024</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>176.98535024961777</v>
+        <v>241.81843992629544</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
@@ -2819,15 +2819,15 @@
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.434637116948112E-2</v>
+        <v>0.511730778554496</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17340330377464613</v>
+        <v>8.6026601035236361</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>177.15875355339242</v>
+        <v>250.42110002981909</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
@@ -2841,15 +2841,15 @@
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48817538637451519</v>
+        <v>0.89013837603985824</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0372791696743082</v>
+        <v>26.502404029072018</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>185.19603272306674</v>
+        <v>276.92350405889113</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
@@ -2863,15 +2863,15 @@
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47913323578090317</v>
+        <v>5.6302470245227165E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8271320095872907</v>
+        <v>0.6953949309041253</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>193.02316473265404</v>
+        <v>277.61889898979524</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
@@ -2885,15 +2885,15 @@
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26127197887880604</v>
+        <v>0.2511566099526763</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6339055457736524</v>
+        <v>3.4707049126482934</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>196.65707027842768</v>
+        <v>281.08960390244351</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
@@ -2907,15 +2907,15 @@
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23129171495487844</v>
+        <v>0.80892201574994793</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1565246962758966</v>
+        <v>19.860883677145633</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>199.81359497470359</v>
+        <v>300.95048757958915</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
@@ -2929,15 +2929,15 @@
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2105330751391693</v>
+        <v>0.4575000019193417</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8367680793259717</v>
+        <v>7.3388063652657536</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>202.65036305402955</v>
+        <v>308.28929394485488</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
@@ -2951,15 +2951,15 @@
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5874404715810759E-2</v>
+        <v>0.78029444916697299</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0774476502161832</v>
+        <v>18.185604412782666</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>203.72781070424574</v>
+        <v>326.47489835763753</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
@@ -2973,15 +2973,15 @@
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64569856292057171</v>
+        <v>9.8804806268901979E-2</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>12.451286532118917</v>
+        <v>1.248400843513584</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>216.17909723636467</v>
+        <v>327.72329920115112</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
@@ -2995,15 +2995,15 @@
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48908759531001678</v>
+        <v>0.72914565789613717</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0586854743895433</v>
+        <v>15.674089027317414</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>224.2377827107542</v>
+        <v>343.39738822846851</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3017,15 +3017,15 @@
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34685553007250103</v>
+        <v>7.7516768636584188E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1114832062956808</v>
+        <v>0.9682329673979585</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>229.34926591704988</v>
+        <v>344.36562119586648</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
@@ -3039,15 +3039,15 @@
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31406797404876441</v>
+        <v>0.14296522175000625</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>4.523720924404655</v>
+        <v>1.8513213578304248</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>233.87298684145452</v>
+        <v>346.21694255369692</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
@@ -3061,15 +3061,15 @@
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29103969653877682</v>
+        <v>6.0983837695593124E-2</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1274689219267016</v>
+        <v>0.75507105204286495</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>238.00045576338121</v>
+        <v>346.97201360573979</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
@@ -3083,15 +3083,15 @@
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66626824586017142</v>
+        <v>0.62810285388231069</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.169012880072657</v>
+        <v>11.869655422440536</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>251.16946864345385</v>
+        <v>358.84166902818032</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -3105,15 +3105,15 @@
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22197193530564185</v>
+        <v>0.73918829991514357</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0119121909891629</v>
+        <v>16.12747905176834</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>254.18138083444302</v>
+        <v>374.96914807994864</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
@@ -3127,15 +3127,15 @@
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6498045278097806</v>
+        <v>4.4605196185490303E-2</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>12.591165461102651</v>
+        <v>0.5475674015397668</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>266.77254629554568</v>
+        <v>375.5167154814884</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -3149,15 +3149,15 @@
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16815852702740874</v>
+        <v>0.29064248496318212</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2093607232962773</v>
+        <v>4.120747524268733</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>268.98190701884198</v>
+        <v>379.63746300575713</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
@@ -3171,15 +3171,15 @@
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29578737594102278</v>
+        <v>0.33342468092418653</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2080993473530661</v>
+        <v>4.8672256665927831</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>273.19000636619506</v>
+        <v>384.50468867234991</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
@@ -3193,15 +3193,15 @@
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99957905834317606</v>
+        <v>0.71913815752358468</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>93.276195795015155</v>
+        <v>15.238708732075928</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>366.46620216121022</v>
+        <v>399.74339740442582</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
@@ -3215,15 +3215,15 @@
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74040875331689315</v>
+        <v>0.24158210895006837</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>16.183764158384395</v>
+        <v>3.3182488536018275</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>382.64996631959463</v>
+        <v>403.06164625802762</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
@@ -3237,15 +3237,15 @@
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94067311965541267</v>
+        <v>0.11199297921586882</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>33.896313378120716</v>
+        <v>1.4253075567934261</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>416.54627969771536</v>
+        <v>404.48695381482105</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
@@ -3259,15 +3259,15 @@
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63298286737248688</v>
+        <v>0.38319944167145004</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>12.028160989301098</v>
+        <v>5.7985146183779728</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>428.57444068701648</v>
+        <v>410.28546843319901</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
@@ -3281,15 +3281,15 @@
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68904294030877944</v>
+        <v>0.55436181002750029</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>14.017205376817103</v>
+        <v>9.6989746732241322</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>442.59164606383359</v>
+        <v>419.98444310642316</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
@@ -3303,15 +3303,15 @@
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2190819852054684E-2</v>
+        <v>0.34797221772613673</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1606529178605745</v>
+        <v>5.1320172853658041</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>443.7522989816942</v>
+        <v>425.11646039178896</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
@@ -3325,15 +3325,15 @@
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54084391933282161</v>
+        <v>0.32306692065349984</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3403809803671951</v>
+        <v>4.6821943173505769</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>453.09267996206137</v>
+        <v>429.79865470913956</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
@@ -3347,15 +3347,15 @@
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64941095238476376</v>
+        <v>0.10700451952854306</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>12.577686551499806</v>
+        <v>1.358085110167722</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>465.67036651356119</v>
+        <v>431.15673981930729</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
@@ -3369,15 +3369,15 @@
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22460946713701135</v>
+        <v>0.67569648585894593</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0526615581467795</v>
+        <v>13.512905155759421</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>468.72302807170797</v>
+        <v>444.66964497506672</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
@@ -3391,15 +3391,15 @@
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31159271041337122</v>
+        <v>0.45404576865126178</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4804955063349343</v>
+        <v>7.2626415854326307</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>473.2035235780429</v>
+        <v>451.93228656049934</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
@@ -3413,15 +3413,15 @@
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13330885468159548</v>
+        <v>6.2001170709042652E-2</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7168711932966252</v>
+        <v>0.76807893680826056</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>474.92039477133955</v>
+        <v>452.70036549730759</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
@@ -3435,15 +3435,15 @@
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7355372253778811E-2</v>
+        <v>0.37233143945158131</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21009290711029338</v>
+        <v>5.5889162599297642</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>475.13048767844981</v>
+        <v>458.28928175723735</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
@@ -3457,15 +3457,15 @@
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88801440764398742</v>
+        <v>0.5740699604655739</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>26.272620667683537</v>
+        <v>10.24176207173298</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>501.40310834613337</v>
+        <v>468.53104382897033</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
@@ -3479,15 +3479,15 @@
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60371240801581127</v>
+        <v>7.2671045740265616E-2</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>11.107381067156775</v>
+        <v>0.90536300879661746</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>512.51048941329009</v>
+        <v>469.43640683776692</v>
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
@@ -3501,15 +3501,15 @@
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14742503890703518</v>
+        <v>0.81948583615775838</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9139297134718611</v>
+        <v>20.543352410972332</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>514.4244191267619</v>
+        <v>489.97975924873924</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
@@ -3523,15 +3523,15 @@
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53699993657433298</v>
+        <v>0.21247217451722766</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>9.240337054889169</v>
+        <v>2.8662788995224067</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>523.66475618165111</v>
+        <v>492.84603814826164</v>
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
@@ -3545,15 +3545,15 @@
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52619077139773363</v>
+        <v>0.93249132415943392</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9634061152433055</v>
+        <v>32.34598990070041</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>532.6281622968944</v>
+        <v>525.19202804896202</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
@@ -3567,15 +3567,15 @@
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50232765212916586</v>
+        <v>0.40190044794246371</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3737602539363927</v>
+        <v>6.16797676649196</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>541.00192255083084</v>
+        <v>531.36000481545398</v>
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
@@ -3589,15 +3589,15 @@
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4051510967051275</v>
+        <v>0.91960491142842971</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2333741967358369</v>
+        <v>30.249626304976907</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>547.23529674756662</v>
+        <v>561.60963112043089</v>
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
@@ -3611,15 +3611,15 @@
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54890348858318128</v>
+        <v>0.62707799946490184</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5528876172077002</v>
+        <v>11.836631940631108</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>556.78818436477434</v>
+        <v>573.44626306106204</v>
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
@@ -3633,15 +3633,15 @@
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48604299332355316</v>
+        <v>0.56538477874241244</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>7.987387939484746</v>
+        <v>9.9995302580490648</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>564.77557230425907</v>
+        <v>583.44579331911109</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
@@ -3655,15 +3655,15 @@
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33796315024392054</v>
+        <v>0.99450472403974577</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9492087237226361</v>
+        <v>62.446397665693191</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>569.72478102798175</v>
+        <v>645.8921909848043</v>
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
@@ -3677,15 +3677,15 @@
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58862295975767087</v>
+        <v>0.44259958575953084</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>10.658941345953922</v>
+        <v>7.0136570492283656</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>580.38372237393571</v>
+        <v>652.90584803403272</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
@@ -3699,15 +3699,15 @@
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85857299381417096</v>
+        <v>0.98681387492434569</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>23.471658628115815</v>
+        <v>51.943081594167509</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>603.85538100205156</v>
+        <v>704.84892962820027</v>
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
@@ -3721,15 +3721,15 @@
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17222058741627033</v>
+        <v>0.46395599537721</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2681028401600405</v>
+        <v>7.4824682772523072</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>606.12348384221161</v>
+        <v>712.3313979054526</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
@@ -3743,15 +3743,15 @@
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42663341514168618</v>
+        <v>0.73723599327099509</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6747600321432472</v>
+        <v>16.037987549375792</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>612.79824387435485</v>
+        <v>728.36938545482838</v>
       </c>
       <c r="G61">
         <f t="shared" si="3"/>
@@ -3765,15 +3765,15 @@
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91920889055731569</v>
+        <v>0.28725007247083156</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>30.19066021390752</v>
+        <v>4.0634958344055869</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>642.98890408826242</v>
+        <v>732.43288128923393</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
@@ -3787,15 +3787,15 @@
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.625710484046619</v>
+        <v>0.26412820519440183</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>11.792708090478447</v>
+        <v>3.6803924071996956</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>654.78161217874083</v>
+        <v>736.11327369643368</v>
       </c>
       <c r="G63">
         <f t="shared" si="3"/>
@@ -3809,15 +3809,15 @@
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18985043340310193</v>
+        <v>8.3843291396333064E-2</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5264367789011248</v>
+        <v>1.0508141961449964</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>657.30804895764197</v>
+        <v>737.16408789257866</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
@@ -3831,15 +3831,15 @@
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32097480330528483</v>
+        <v>4.1014081980343731E-2</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6451645229330634</v>
+        <v>0.50254665878273619</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>661.95321348057507</v>
+        <v>737.66663455136143</v>
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
@@ -3853,15 +3853,15 @@
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93780087687633906</v>
+        <v>0.15391604779475887</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>33.328972524320584</v>
+        <v>2.0056402801698567</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>695.28218600489561</v>
+        <v>739.67227483153124</v>
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
@@ -3875,15 +3875,15 @@
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56624909874188356</v>
+        <v>0.52366331575294356</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
-        <v>10.023418438736595</v>
+        <v>8.8995642592409698</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>705.30560444363221</v>
+        <v>748.57183909077219</v>
       </c>
       <c r="G67">
         <f t="shared" si="3"/>
@@ -3897,15 +3897,15 @@
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68">
         <f t="shared" ref="C68:C104" ca="1" si="5">RAND()</f>
-        <v>0.93980357305935425</v>
+        <v>0.14021253710473325</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D104" ca="1" si="6">-12*LN(1-C68)</f>
-        <v>33.721707378890983</v>
+        <v>1.8128406773526391</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>739.02731182252319</v>
+        <v>750.38467976812478</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
@@ -3919,15 +3919,15 @@
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47497511765080347</v>
+        <v>0.30739604576099777</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7317154707532154</v>
+        <v>4.4075632531456117</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:E104" ca="1" si="7">E68+D69</f>
-        <v>746.7590272932764</v>
+        <v>754.79224302127045</v>
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
@@ -3941,15 +3941,15 @@
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47975235319950815</v>
+        <v>0.19389747193771623</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8414040431320728</v>
+        <v>2.5865320623947992</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="7"/>
-        <v>754.60043133640852</v>
+        <v>757.37877508366523</v>
       </c>
       <c r="G70">
         <f t="shared" ref="G70:G104" si="8">100+G69</f>
@@ -3963,15 +3963,15 @@
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97166895571252077</v>
+        <v>0.93279992976649828</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="6"/>
-        <v>42.765565251327359</v>
+        <v>32.400971835746219</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="7"/>
-        <v>797.36599658773594</v>
+        <v>789.77974691941142</v>
       </c>
       <c r="G71">
         <f t="shared" si="8"/>
@@ -3985,15 +3985,15 @@
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87088020084767792</v>
+        <v>0.77702160189375924</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="6"/>
-        <v>24.564175559681566</v>
+        <v>18.008164580314922</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="7"/>
-        <v>821.93017214741747</v>
+        <v>807.78791149972631</v>
       </c>
       <c r="G72">
         <f t="shared" si="8"/>
@@ -4007,15 +4007,15 @@
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9390114148410889E-2</v>
+        <v>0.57631639673875845</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73472159245965007</v>
+        <v>10.305219852401329</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="7"/>
-        <v>822.66489373987713</v>
+        <v>818.09313135212767</v>
       </c>
       <c r="G73">
         <f t="shared" si="8"/>
@@ -4029,15 +4029,15 @@
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60648230624908495</v>
+        <v>0.91435590616253104</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="6"/>
-        <v>11.191550964912871</v>
+        <v>29.490660162442644</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="7"/>
-        <v>833.85644470478996</v>
+        <v>847.58379151457029</v>
       </c>
       <c r="G74">
         <f t="shared" si="8"/>
@@ -4051,15 +4051,15 @@
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24080402060277128</v>
+        <v>0.86681721230193021</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3059439305017939</v>
+        <v>24.192393008539515</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="7"/>
-        <v>837.16238863529179</v>
+        <v>871.77618452310981</v>
       </c>
       <c r="G75">
         <f t="shared" si="8"/>
@@ -4073,15 +4073,15 @@
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78050294951205179</v>
+        <v>0.81835981706911498</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="6"/>
-        <v>18.196997807636766</v>
+        <v>20.46873078775274</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="7"/>
-        <v>855.35938644292855</v>
+        <v>892.24491531086255</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
@@ -4095,15 +4095,15 @@
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72635920218563177</v>
+        <v>0.47952541831732298</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="6"/>
-        <v>15.551267874379846</v>
+        <v>7.8361707185141256</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="7"/>
-        <v>870.9106543173084</v>
+        <v>900.08108602937671</v>
       </c>
       <c r="G77">
         <f t="shared" si="8"/>
@@ -4117,15 +4117,15 @@
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20422119847062814</v>
+        <v>0.66498102259724956</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7412082313787414</v>
+        <v>13.12281719757754</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="7"/>
-        <v>873.65186254868718</v>
+        <v>913.20390322695425</v>
       </c>
       <c r="G78">
         <f t="shared" si="8"/>
@@ -4139,15 +4139,15 @@
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60616765712016174</v>
+        <v>0.53890074462665682</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="6"/>
-        <v>11.181959831179672</v>
+        <v>9.2897034559522176</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="7"/>
-        <v>884.83382237986689</v>
+        <v>922.49360668290649</v>
       </c>
       <c r="G79">
         <f t="shared" si="8"/>
@@ -4161,15 +4161,15 @@
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23510389512193175</v>
+        <v>6.4903864455940763E-3</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2161831799472282</v>
+        <v>7.8138487028909215E-2</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="7"/>
-        <v>888.05000555981417</v>
+        <v>922.57174516993541</v>
       </c>
       <c r="G80">
         <f t="shared" si="8"/>
@@ -4183,15 +4183,15 @@
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76628836166050962</v>
+        <v>0.52702312284749198</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="6"/>
-        <v>17.444006860046184</v>
+        <v>8.9845053263736929</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="7"/>
-        <v>905.49401241986038</v>
+        <v>931.55625049630908</v>
       </c>
       <c r="G81">
         <f t="shared" si="8"/>
@@ -4205,15 +4205,15 @@
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3641823801510466E-2</v>
+        <v>0.62299845891266425</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16482874174229634</v>
+        <v>11.706072045331979</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="7"/>
-        <v>905.65884116160271</v>
+        <v>943.26232254164108</v>
       </c>
       <c r="G82">
         <f t="shared" si="8"/>
@@ -4227,15 +4227,15 @@
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96148268359069922</v>
+        <v>0.88910993325236609</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>39.07976834331285</v>
+        <v>26.390591497087861</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="7"/>
-        <v>944.73860950491553</v>
+        <v>969.65291403872891</v>
       </c>
       <c r="G83">
         <f t="shared" si="8"/>
@@ -4249,15 +4249,15 @@
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14426889177264102</v>
+        <v>0.95106428021458955</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8695889370906666</v>
+        <v>36.206972198428872</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="7"/>
-        <v>946.60819844200614</v>
+        <v>1005.8598862371578</v>
       </c>
       <c r="G84">
         <f t="shared" si="8"/>
@@ -4271,15 +4271,15 @@
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6302738670224506E-2</v>
+        <v>0.60147732900081108</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69539834418043966</v>
+        <v>11.039890698377672</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="7"/>
-        <v>947.30359678618663</v>
+        <v>1016.8997769355354</v>
       </c>
       <c r="G85">
         <f t="shared" si="8"/>
@@ -4293,15 +4293,15 @@
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10134576451573918</v>
+        <v>0.30392447652125354</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2822831435819861</v>
+        <v>4.3475653654710857</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="7"/>
-        <v>948.58587992976857</v>
+        <v>1021.2473423010065</v>
       </c>
       <c r="G86">
         <f t="shared" si="8"/>
@@ -4315,15 +4315,15 @@
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32676939436445518</v>
+        <v>0.32345845883538171</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7480082573859193</v>
+        <v>4.6891371269791335</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="7"/>
-        <v>953.33388818715446</v>
+        <v>1025.9364794279857</v>
       </c>
       <c r="G87">
         <f t="shared" si="8"/>
@@ -4337,15 +4337,15 @@
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1098862208307162</v>
+        <v>0.34020656776270397</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3968717919652776</v>
+        <v>4.9899416929107234</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="7"/>
-        <v>954.73075997911974</v>
+        <v>1030.9264211208963</v>
       </c>
       <c r="G88">
         <f t="shared" si="8"/>
@@ -4359,15 +4359,15 @@
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32779045297024956</v>
+        <v>0.31733479866642866</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7662219335535436</v>
+        <v>4.5810087357261411</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="7"/>
-        <v>959.49698191267328</v>
+        <v>1035.5074298566224</v>
       </c>
       <c r="G89">
         <f t="shared" si="8"/>
@@ -4381,15 +4381,15 @@
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42402715065679408</v>
+        <v>0.74266462931733979</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6203370714497094</v>
+        <v>16.288501205954574</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="7"/>
-        <v>966.11731898412302</v>
+        <v>1051.795931062577</v>
       </c>
       <c r="G90">
         <f t="shared" si="8"/>
@@ -4403,15 +4403,15 @@
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7256917595397492E-2</v>
+        <v>0.37334067959763784</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20889064468088864</v>
+        <v>5.6082268158858248</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="7"/>
-        <v>966.32620962880389</v>
+        <v>1057.4041578784629</v>
       </c>
       <c r="G91">
         <f t="shared" si="8"/>
@@ -4425,15 +4425,15 @@
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21175176559990672</v>
+        <v>0.27594798703624024</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8553066454943972</v>
+        <v>3.8747045768004509</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="7"/>
-        <v>969.18151627429825</v>
+        <v>1061.2788624552634</v>
       </c>
       <c r="G92">
         <f t="shared" si="8"/>
@@ -4447,15 +4447,15 @@
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63748605258336577</v>
+        <v>0.67230075636637976</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>12.176307957545776</v>
+        <v>13.387908376633977</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="7"/>
-        <v>981.35782423184401</v>
+        <v>1074.6667708318973</v>
       </c>
       <c r="G93">
         <f t="shared" si="8"/>
@@ -4469,15 +4469,15 @@
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77232377572525401</v>
+        <v>0.98111188982320219</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>17.757968739019624</v>
+        <v>47.630671752625688</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="7"/>
-        <v>999.11579297086359</v>
+        <v>1122.297442584523</v>
       </c>
       <c r="G94">
         <f t="shared" si="8"/>
@@ -4491,15 +4491,15 @@
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9194656182126066E-2</v>
+        <v>0.76475300016520043</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9900794176811325</v>
+        <v>17.365431044295313</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="7"/>
-        <v>1000.1058723885448</v>
+        <v>1139.6628736288183</v>
       </c>
       <c r="G95">
         <f t="shared" si="8"/>
@@ -4513,15 +4513,15 @@
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67800781977909486</v>
+        <v>0.73709449879112421</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>13.598736225130317</v>
+        <v>16.031527468378826</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="7"/>
-        <v>1013.7046086136751</v>
+        <v>1155.694401097197</v>
       </c>
       <c r="G96">
         <f t="shared" si="8"/>
@@ -4535,15 +4535,15 @@
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29685102523457196</v>
+        <v>0.89242535919786548</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>4.226237960717909</v>
+        <v>26.754844071707687</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="7"/>
-        <v>1017.9308465743929</v>
+        <v>1182.4492451689048</v>
       </c>
       <c r="G97">
         <f t="shared" si="8"/>
@@ -4557,15 +4557,15 @@
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91035519544540056</v>
+        <v>0.63835616153532393</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>28.942800397829078</v>
+        <v>12.205145077443742</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="7"/>
-        <v>1046.8736469722221</v>
+        <v>1194.6543902463486</v>
       </c>
       <c r="G98">
         <f t="shared" si="8"/>
@@ -4579,15 +4579,15 @@
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9896992143602086E-2</v>
+        <v>0.56221037785842432</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3642362334776062</v>
+        <v>9.9122015848683489</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>1047.2378832056997</v>
+        <v>1204.566591831217</v>
       </c>
       <c r="G99">
         <f t="shared" si="8"/>
@@ -4601,15 +4601,15 @@
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18874572017186164</v>
+        <v>0.83396180139926668</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5100848245679721</v>
+        <v>21.546448860536408</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>1049.7479680302677</v>
+        <v>1226.1130406917534</v>
       </c>
       <c r="G100">
         <f t="shared" si="8"/>
@@ -4623,15 +4623,15 @@
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68558254484207704</v>
+        <v>0.48138223492504251</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="6"/>
-        <v>13.884404412216824</v>
+        <v>7.879057807576328</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>1063.6323724424844</v>
+        <v>1233.9920984993298</v>
       </c>
       <c r="G101">
         <f t="shared" si="8"/>
@@ -4645,15 +4645,15 @@
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6989696093949807E-2</v>
+        <v>0.80536219169441325</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2242557785789892</v>
+        <v>19.63937808980333</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="7"/>
-        <v>1064.8566282210634</v>
+        <v>1253.6314765891332</v>
       </c>
       <c r="G102">
         <f t="shared" si="8"/>
@@ -4667,15 +4667,15 @@
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82451452948087822</v>
+        <v>0.31202068185702403</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="6"/>
-        <v>20.882388342819041</v>
+        <v>4.487958028071926</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="7"/>
-        <v>1085.7390165638824</v>
+        <v>1258.1194346172051</v>
       </c>
       <c r="G103">
         <f t="shared" si="8"/>
@@ -4689,15 +4689,15 @@
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6344486476936172</v>
+        <v>4.8921248710981025E-2</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="6"/>
-        <v>12.076182130500731</v>
+        <v>0.6019009312656407</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="7"/>
-        <v>1097.8151986943831</v>
+        <v>1258.7213355484707</v>
       </c>
       <c r="G104">
         <f t="shared" si="8"/>
@@ -4717,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,10 +4729,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
@@ -4755,8 +4755,8 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="12"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -4795,10 +4795,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="10"/>
@@ -4816,10 +4816,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="23">
+      <c r="F5" s="17">
         <v>2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="17">
         <v>8.6021505376344086E-4</v>
       </c>
       <c r="H5" s="10"/>
@@ -4838,11 +4838,11 @@
         <v>2</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="23">
+      <c r="F6" s="17">
         <f>1+F5</f>
         <v>3</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="17">
         <v>8.1991182292603902E-3</v>
       </c>
       <c r="H6" s="10"/>
@@ -4861,11 +4861,11 @@
         <v>2</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="23">
+      <c r="F7" s="17">
         <f t="shared" ref="F7:F11" si="2">1+F6</f>
         <v>4</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="17">
         <v>3.137447147496783E-2</v>
       </c>
       <c r="H7" s="10"/>
@@ -4884,11 +4884,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="17">
         <v>7.5324146920893495E-2</v>
       </c>
       <c r="H8" s="10"/>
@@ -4907,11 +4907,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="23">
+      <c r="F9" s="17">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="17">
         <v>0.13879105188005711</v>
       </c>
       <c r="H9" s="10"/>
@@ -4930,11 +4930,11 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="17">
         <v>0.21776251771624394</v>
       </c>
       <c r="H10" s="10"/>
@@ -4953,11 +4953,11 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="23">
+      <c r="F11" s="17">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="17">
         <v>0.3081646999630876</v>
       </c>
       <c r="H11" s="10"/>
@@ -5013,14 +5013,14 @@
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
@@ -5045,14 +5045,14 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>

--- a/lab_3_telecom-Probability of Infinity channel.xlsx
+++ b/lab_3_telecom-Probability of Infinity channel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.6021505376344086E-4</c:v>
+                  <c:v>8.6021505376344097E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.1991182292603902E-3</c:v>
@@ -433,13 +433,13 @@
                   <c:v>7.5324146920893495E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13879105188005711</c:v>
+                  <c:v>0.138791051880057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21776251771624394</c:v>
+                  <c:v>0.217762517716244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3081646999630876</c:v>
+                  <c:v>0.30816469996308798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,15 +2149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>197069</xdr:colOff>
+      <xdr:colOff>72259</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>158969</xdr:rowOff>
+      <xdr:rowOff>145831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>6569</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>492673</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2470,15 +2470,15 @@
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.96330130064720321</v>
+        <v>0.82244726422587933</v>
       </c>
       <c r="D3">
         <f ca="1">-12*LN(1-C3)</f>
-        <v>39.660167574334949</v>
+        <v>20.741851334882597</v>
       </c>
       <c r="E3">
         <f ca="1">D3</f>
-        <v>39.660167574334949</v>
+        <v>20.741851334882597</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -2490,15 +2490,15 @@
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4">
         <f t="shared" ref="C4:C67" ca="1" si="0">RAND()</f>
-        <v>0.85593767979989266</v>
+        <v>0.51308340838185007</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D67" ca="1" si="1">-12*LN(1-C4)</f>
-        <v>23.250111526327409</v>
+        <v>8.6359492841498007</v>
       </c>
       <c r="E4">
         <f ca="1">E3+D4</f>
-        <v>62.910279100662358</v>
+        <v>29.377800619032399</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2511,15 +2511,15 @@
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65139753910171838</v>
+        <v>0.82359471686645713</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>12.645877038548214</v>
+        <v>20.819654233455516</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E68" ca="1" si="2">E4+D5</f>
-        <v>75.556156139210572</v>
+        <v>50.197454852487915</v>
       </c>
       <c r="G5">
         <f>100+G4</f>
@@ -2533,15 +2533,15 @@
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50536958783924013</v>
+        <v>0.92189658425274146</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4473332486674781</v>
+        <v>30.596657850390962</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>84.003489387878048</v>
+        <v>80.794112702878877</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G69" si="3">100+G5</f>
@@ -2555,15 +2555,15 @@
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19268970191956969</v>
+        <v>0.90194405734625471</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5685661175477907</v>
+        <v>27.866605437301427</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>86.572055505425837</v>
+        <v>108.66071814018031</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
@@ -2577,15 +2577,15 @@
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18172786228613003</v>
+        <v>0.40655781705781924</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4067237321867676</v>
+        <v>6.2617858415145857</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>88.978779237612599</v>
+        <v>114.92250398169489</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
@@ -2599,15 +2599,15 @@
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97935268066361181</v>
+        <v>0.73356093384671694</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>46.56203738664216</v>
+        <v>15.871316476171895</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>135.54081662425477</v>
+        <v>130.79382045786679</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
@@ -2621,15 +2621,15 @@
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32900772508645149</v>
+        <v>0.13176635954926252</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7879718584787359</v>
+        <v>1.6955331541873542</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>140.3287884827335</v>
+        <v>132.48935361205415</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
@@ -2643,15 +2643,15 @@
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82447159274991755</v>
+        <v>0.95175958348143963</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>20.879452614024657</v>
+        <v>36.378697107623609</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>161.20824109675817</v>
+        <v>168.86805071967774</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -2665,15 +2665,15 @@
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8494759221696021</v>
+        <v>0.20052031753599842</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>22.723586664065955</v>
+        <v>2.6855299180084655</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>183.93182776082412</v>
+        <v>171.5535806376862</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
@@ -2687,15 +2687,15 @@
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68284448619277383</v>
+        <v>0.82118610018915128</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>13.780356546795369</v>
+        <v>20.656916157959994</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>197.71218430761948</v>
+        <v>192.21049679564618</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
@@ -2709,15 +2709,15 @@
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86869888537988282</v>
+        <v>0.50185861993636627</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>24.363144103195388</v>
+        <v>8.3624561584576558</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>222.07532841081488</v>
+        <v>200.57295295410384</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
@@ -2731,15 +2731,15 @@
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41809775455683384</v>
+        <v>0.3522785152820832</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4974337021699409</v>
+        <v>5.2115337906920978</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>228.5727621129848</v>
+        <v>205.78448674479594</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
@@ -2753,15 +2753,15 @@
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26105759131300088</v>
+        <v>0.92832336501801516</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.630423509785361</v>
+        <v>31.62708547707846</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>232.20318562277018</v>
+        <v>237.41157222187439</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
@@ -2775,15 +2775,15 @@
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53301483182681741</v>
+        <v>0.33912129972570293</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1374933794167017</v>
+        <v>4.9702195846677233</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>241.34067900218687</v>
+        <v>242.38179180654211</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
@@ -2797,15 +2797,15 @@
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9031270748862368E-2</v>
+        <v>0.98640071230714987</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47776092410857024</v>
+        <v>51.57285435765003</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>241.81843992629544</v>
+        <v>293.95464616419213</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
@@ -2819,15 +2819,15 @@
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.511730778554496</v>
+        <v>1.4959073017391966E-2</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6026601035236361</v>
+        <v>0.18086506124502041</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>250.42110002981909</v>
+        <v>294.13551122543714</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
@@ -2841,15 +2841,15 @@
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89013837603985824</v>
+        <v>0.16991906212079999</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>26.502404029072018</v>
+        <v>2.2347848091445677</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>276.92350405889113</v>
+        <v>296.37029603458171</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
@@ -2863,15 +2863,15 @@
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6302470245227165E-2</v>
+        <v>0.45998104601315504</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6953949309041253</v>
+        <v>7.3938124807700145</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>277.61889898979524</v>
+        <v>303.76410851535172</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
@@ -2885,15 +2885,15 @@
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2511566099526763</v>
+        <v>0.15554769645992839</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4707049126482934</v>
+        <v>2.0288042791616783</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>281.08960390244351</v>
+        <v>305.79291279451343</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
@@ -2907,15 +2907,15 @@
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80892201574994793</v>
+        <v>0.17335685263882328</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>19.860883677145633</v>
+        <v>2.2845861560246385</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>300.95048757958915</v>
+        <v>308.07749895053809</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
@@ -2929,15 +2929,15 @@
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4575000019193417</v>
+        <v>0.85803380854496625</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3388063652657536</v>
+        <v>23.425996056878862</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>308.28929394485488</v>
+        <v>331.50349500741697</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
@@ -2951,15 +2951,15 @@
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78029444916697299</v>
+        <v>0.56375442445982682</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>18.185604412782666</v>
+        <v>9.9545993705422458</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>326.47489835763753</v>
+        <v>341.45809437795924</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
@@ -2973,15 +2973,15 @@
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8804806268901979E-2</v>
+        <v>0.64833580208439123</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.248400843513584</v>
+        <v>12.540942502918915</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>327.72329920115112</v>
+        <v>353.99903688087818</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
@@ -2995,15 +2995,15 @@
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72914565789613717</v>
+        <v>0.38587026133361024</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>15.674089027317414</v>
+        <v>5.8505888687551613</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>343.39738822846851</v>
+        <v>359.84962574963333</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -3017,15 +3017,15 @@
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7516768636584188E-2</v>
+        <v>0.84362540051533086</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9682329673979585</v>
+        <v>22.266010457369521</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>344.36562119586648</v>
+        <v>382.11563620700286</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
@@ -3039,15 +3039,15 @@
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14296522175000625</v>
+        <v>0.78379436037000916</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8513213578304248</v>
+        <v>18.378303466465706</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>346.21694255369692</v>
+        <v>400.49393967346856</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
@@ -3061,15 +3061,15 @@
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0983837695593124E-2</v>
+        <v>0.67333587221311153</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75507105204286495</v>
+        <v>13.425873217161426</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>346.97201360573979</v>
+        <v>413.91981289063</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
@@ -3083,15 +3083,15 @@
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62810285388231069</v>
+        <v>0.98210750920069334</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>11.869655422440536</v>
+        <v>48.280489950867889</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>358.84166902818032</v>
+        <v>462.20030284149789</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -3105,15 +3105,15 @@
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73918829991514357</v>
+        <v>0.14049696363499431</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>16.12747905176834</v>
+        <v>1.8168110574550571</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>374.96914807994864</v>
+        <v>464.01711389895297</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
@@ -3127,15 +3127,15 @@
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4605196185490303E-2</v>
+        <v>0.24366920307529993</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5475674015397668</v>
+        <v>3.3513172372231352</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>375.5167154814884</v>
+        <v>467.36843113617613</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -3149,15 +3149,15 @@
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29064248496318212</v>
+        <v>0.35439692291546121</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>4.120747524268733</v>
+        <v>5.2508447495731749</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>379.63746300575713</v>
+        <v>472.61927588574929</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
@@ -3171,15 +3171,15 @@
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33342468092418653</v>
+        <v>0.56595413589269861</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8672256665927831</v>
+        <v>10.015260873583564</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>384.50468867234991</v>
+        <v>482.63453675933283</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
@@ -3193,15 +3193,15 @@
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71913815752358468</v>
+        <v>0.11851764743454862</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>15.238708732075928</v>
+        <v>1.513803565474616</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>399.74339740442582</v>
+        <v>484.14834032480746</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
@@ -3215,15 +3215,15 @@
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24158210895006837</v>
+        <v>0.96262186409001005</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3182488536018275</v>
+        <v>39.440032162137676</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>403.06164625802762</v>
+        <v>523.5883724869451</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
@@ -3237,15 +3237,15 @@
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11199297921586882</v>
+        <v>0.98738779164410095</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4253075567934261</v>
+        <v>52.477080203844963</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>404.48695381482105</v>
+        <v>576.06545269079004</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
@@ -3259,15 +3259,15 @@
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38319944167145004</v>
+        <v>0.71843826664314536</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7985146183779728</v>
+        <v>15.208842648001553</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>410.28546843319901</v>
+        <v>591.2742953387916</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
@@ -3281,15 +3281,15 @@
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55436181002750029</v>
+        <v>0.26766329120527999</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6989746732241322</v>
+        <v>3.7381786330693521</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>419.98444310642316</v>
+        <v>595.01247397186091</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
@@ -3303,15 +3303,15 @@
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34797221772613673</v>
+        <v>0.6278005806124658</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1320172853658041</v>
+        <v>11.859905936672645</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>425.11646039178896</v>
+        <v>606.8723799085335</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
@@ -3325,15 +3325,15 @@
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32306692065349984</v>
+        <v>0.21914650088183019</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6821943173505769</v>
+        <v>2.9684127347125018</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>429.79865470913956</v>
+        <v>609.840792643246</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
@@ -3347,15 +3347,15 @@
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10700451952854306</v>
+        <v>0.49671800775111152</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>1.358085110167722</v>
+        <v>8.2392557423805179</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>431.15673981930729</v>
+        <v>618.08004838562647</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
@@ -3369,15 +3369,15 @@
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67569648585894593</v>
+        <v>0.95114591096007017</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>13.512905155759421</v>
+        <v>36.227006375508509</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>444.66964497506672</v>
+        <v>654.30705476113496</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
@@ -3391,15 +3391,15 @@
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45404576865126178</v>
+        <v>0.51930458981867289</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2626415854326307</v>
+        <v>8.7902574279070382</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>451.93228656049934</v>
+        <v>663.09731218904199</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
@@ -3413,15 +3413,15 @@
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2001170709042652E-2</v>
+        <v>0.40537496280474372</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76807893680826056</v>
+        <v>6.2378911401268056</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>452.70036549730759</v>
+        <v>669.33520332916873</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
@@ -3435,15 +3435,15 @@
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37233143945158131</v>
+        <v>0.49815000356056116</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5889162599297642</v>
+        <v>8.2734481898063894</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>458.28928175723735</v>
+        <v>677.60865151897508</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
@@ -3457,15 +3457,15 @@
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5740699604655739</v>
+        <v>0.41268720697699834</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>10.24176207173298</v>
+        <v>6.3863728070062962</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>468.53104382897033</v>
+        <v>683.99502432598138</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
@@ -3479,15 +3479,15 @@
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2671045740265616E-2</v>
+        <v>0.72936024803544008</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90536300879661746</v>
+        <v>15.683600051849893</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>469.43640683776692</v>
+        <v>699.67862437783128</v>
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
@@ -3501,15 +3501,15 @@
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81948583615775838</v>
+        <v>0.40577729918776551</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>20.543352410972332</v>
+        <v>6.2460133522928061</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>489.97975924873924</v>
+        <v>705.92463773012412</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
@@ -3523,15 +3523,15 @@
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21247217451722766</v>
+        <v>0.81513497535846324</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8662788995224067</v>
+        <v>20.257551800653491</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>492.84603814826164</v>
+        <v>726.18218953077758</v>
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
@@ -3545,15 +3545,15 @@
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93249132415943392</v>
+        <v>0.87845593856122839</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>32.34598990070041</v>
+        <v>25.289741236259445</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>525.19202804896202</v>
+        <v>751.47193076703707</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
@@ -3567,15 +3567,15 @@
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40190044794246371</v>
+        <v>0.13759359649712688</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>6.16797676649196</v>
+        <v>1.7763438437150363</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>531.36000481545398</v>
+        <v>753.24827461075211</v>
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
@@ -3589,15 +3589,15 @@
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91960491142842971</v>
+        <v>0.45090652424523969</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>30.249626304976907</v>
+        <v>7.1938390376971606</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>561.60963112043089</v>
+        <v>760.44211364844932</v>
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
@@ -3611,15 +3611,15 @@
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62707799946490184</v>
+        <v>8.8772025409118216E-2</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>11.836631940631108</v>
+        <v>1.115545997956406</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>573.44626306106204</v>
+        <v>761.55765964640568</v>
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
@@ -3633,15 +3633,15 @@
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56538477874241244</v>
+        <v>0.45088237627360983</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9995302580490648</v>
+        <v>7.1933113146396508</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>583.44579331911109</v>
+        <v>768.75097096104537</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
@@ -3655,15 +3655,15 @@
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99450472403974577</v>
+        <v>0.31127149439050072</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>62.446397665693191</v>
+        <v>4.4748975219418261</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>645.8921909848043</v>
+        <v>773.22586848298715</v>
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
@@ -3677,15 +3677,15 @@
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44259958575953084</v>
+        <v>0.24282468146619696</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0136570492283656</v>
+        <v>3.3379254705728325</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>652.90584803403272</v>
+        <v>776.56379395355998</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
@@ -3699,15 +3699,15 @@
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98681387492434569</v>
+        <v>0.57918241457809649</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>51.943081594167509</v>
+        <v>10.386669935766504</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>704.84892962820027</v>
+        <v>786.95046388932644</v>
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
@@ -3721,15 +3721,15 @@
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46395599537721</v>
+        <v>0.11019120003807059</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4824682772523072</v>
+        <v>1.4009840500679354</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>712.3313979054526</v>
+        <v>788.35144793939435</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
@@ -3743,15 +3743,15 @@
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73723599327099509</v>
+        <v>0.72155549879321146</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>16.037987549375792</v>
+        <v>15.342438204086129</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>728.36938545482838</v>
+        <v>803.69388614348043</v>
       </c>
       <c r="G61">
         <f t="shared" si="3"/>
@@ -3765,15 +3765,15 @@
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28725007247083156</v>
+        <v>0.38344314506980481</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0634958344055869</v>
+        <v>5.8032568622512883</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>732.43288128923393</v>
+        <v>809.49714300573169</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
@@ -3787,15 +3787,15 @@
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26412820519440183</v>
+        <v>0.54562931572803752</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6803924071996956</v>
+        <v>9.4661031468354579</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>736.11327369643368</v>
+        <v>818.96324615256719</v>
       </c>
       <c r="G63">
         <f t="shared" si="3"/>
@@ -3809,15 +3809,15 @@
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3843291396333064E-2</v>
+        <v>0.42640357342460922</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0508141961449964</v>
+        <v>6.6699506344305952</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>737.16408789257866</v>
+        <v>825.63319678699781</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
@@ -3831,15 +3831,15 @@
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1014081980343731E-2</v>
+        <v>0.57537851064320256</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50254665878273619</v>
+        <v>10.278685442009792</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>737.66663455136143</v>
+        <v>835.91188222900757</v>
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
@@ -3853,15 +3853,15 @@
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15391604779475887</v>
+        <v>0.76375074934176213</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0056402801698567</v>
+        <v>17.314414613163574</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>739.67227483153124</v>
+        <v>853.22629684217111</v>
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
@@ -3875,15 +3875,15 @@
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52366331575294356</v>
+        <v>4.5797193992361818E-3</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8995642592409698</v>
+        <v>5.5082861311067252E-2</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>748.57183909077219</v>
+        <v>853.28137970348223</v>
       </c>
       <c r="G67">
         <f t="shared" si="3"/>
@@ -3897,15 +3897,15 @@
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68">
         <f t="shared" ref="C68:C104" ca="1" si="5">RAND()</f>
-        <v>0.14021253710473325</v>
+        <v>0.38762484279628828</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D104" ca="1" si="6">-12*LN(1-C68)</f>
-        <v>1.8128406773526391</v>
+        <v>5.8849221877430384</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>750.38467976812478</v>
+        <v>859.16630189122532</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
@@ -3919,15 +3919,15 @@
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30739604576099777</v>
+        <v>0.21011553788919057</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4075632531456117</v>
+        <v>2.8304231365123478</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:E104" ca="1" si="7">E68+D69</f>
-        <v>754.79224302127045</v>
+        <v>861.99672502773763</v>
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
@@ -3941,15 +3941,15 @@
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19389747193771623</v>
+        <v>0.13352042952117227</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5865320623947992</v>
+        <v>1.7198009659547848</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="7"/>
-        <v>757.37877508366523</v>
+        <v>863.71652599369236</v>
       </c>
       <c r="G70">
         <f t="shared" ref="G70:G104" si="8">100+G69</f>
@@ -3963,15 +3963,15 @@
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93279992976649828</v>
+        <v>0.93463681041777857</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="6"/>
-        <v>32.400971835746219</v>
+        <v>32.73355235284194</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="7"/>
-        <v>789.77974691941142</v>
+        <v>896.45007834653427</v>
       </c>
       <c r="G71">
         <f t="shared" si="8"/>
@@ -3985,15 +3985,15 @@
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77702160189375924</v>
+        <v>0.10765423150343545</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="6"/>
-        <v>18.008164580314922</v>
+        <v>1.3668190640237605</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="7"/>
-        <v>807.78791149972631</v>
+        <v>897.816897410558</v>
       </c>
       <c r="G72">
         <f t="shared" si="8"/>
@@ -4007,15 +4007,15 @@
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57631639673875845</v>
+        <v>0.87898003957884041</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="6"/>
-        <v>10.305219852401329</v>
+        <v>25.341597417981752</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="7"/>
-        <v>818.09313135212767</v>
+        <v>923.1584948285398</v>
       </c>
       <c r="G73">
         <f t="shared" si="8"/>
@@ -4029,15 +4029,15 @@
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91435590616253104</v>
+        <v>0.73821343816579665</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="6"/>
-        <v>29.490660162442644</v>
+        <v>16.082709080592394</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="7"/>
-        <v>847.58379151457029</v>
+        <v>939.2412039091322</v>
       </c>
       <c r="G74">
         <f t="shared" si="8"/>
@@ -4051,15 +4051,15 @@
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86681721230193021</v>
+        <v>0.65205049544811977</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="6"/>
-        <v>24.192393008539515</v>
+        <v>12.668374939180435</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="7"/>
-        <v>871.77618452310981</v>
+        <v>951.90957884831266</v>
       </c>
       <c r="G75">
         <f t="shared" si="8"/>
@@ -4073,15 +4073,15 @@
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81835981706911498</v>
+        <v>0.13395132420399969</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="6"/>
-        <v>20.46873078775274</v>
+        <v>1.7257699725919471</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="7"/>
-        <v>892.24491531086255</v>
+        <v>953.6353488209046</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
@@ -4095,15 +4095,15 @@
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47952541831732298</v>
+        <v>0.87734546401331814</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8361707185141256</v>
+        <v>25.180602309411761</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="7"/>
-        <v>900.08108602937671</v>
+        <v>978.81595113031631</v>
       </c>
       <c r="G77">
         <f t="shared" si="8"/>
@@ -4117,15 +4117,15 @@
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66498102259724956</v>
+        <v>0.78766794044529276</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="6"/>
-        <v>13.12281719757754</v>
+        <v>18.595246932641999</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="7"/>
-        <v>913.20390322695425</v>
+        <v>997.41119806295831</v>
       </c>
       <c r="G78">
         <f t="shared" si="8"/>
@@ -4139,15 +4139,15 @@
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53890074462665682</v>
+        <v>0.26334359085778147</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2897034559522176</v>
+        <v>3.6676043697206842</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="7"/>
-        <v>922.49360668290649</v>
+        <v>1001.078802432679</v>
       </c>
       <c r="G79">
         <f t="shared" si="8"/>
@@ -4161,15 +4161,15 @@
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4903864455940763E-3</v>
+        <v>0.11855870295532311</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8138487028909215E-2</v>
+        <v>1.5143624850279296</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="7"/>
-        <v>922.57174516993541</v>
+        <v>1002.593164917707</v>
       </c>
       <c r="G80">
         <f t="shared" si="8"/>
@@ -4183,15 +4183,15 @@
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52702312284749198</v>
+        <v>0.44718197730346188</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9845053263736929</v>
+        <v>7.1127168539718042</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="7"/>
-        <v>931.55625049630908</v>
+        <v>1009.7058817716788</v>
       </c>
       <c r="G81">
         <f t="shared" si="8"/>
@@ -4205,15 +4205,15 @@
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62299845891266425</v>
+        <v>0.23173556670822315</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="6"/>
-        <v>11.706072045331979</v>
+        <v>3.1634554909798664</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="7"/>
-        <v>943.26232254164108</v>
+        <v>1012.8693372626587</v>
       </c>
       <c r="G82">
         <f t="shared" si="8"/>
@@ -4227,15 +4227,15 @@
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88910993325236609</v>
+        <v>0.53736119497482671</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>26.390591497087861</v>
+        <v>9.2497037769959984</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="7"/>
-        <v>969.65291403872891</v>
+        <v>1022.1190410396547</v>
       </c>
       <c r="G83">
         <f t="shared" si="8"/>
@@ -4249,15 +4249,15 @@
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95106428021458955</v>
+        <v>0.20307606279601009</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>36.206972198428872</v>
+        <v>2.723952493532475</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="7"/>
-        <v>1005.8598862371578</v>
+        <v>1024.8429935331872</v>
       </c>
       <c r="G84">
         <f t="shared" si="8"/>
@@ -4271,15 +4271,15 @@
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60147732900081108</v>
+        <v>0.33301036605619516</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>11.039890698377672</v>
+        <v>4.8597692940110004</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="7"/>
-        <v>1016.8997769355354</v>
+        <v>1029.7027628271981</v>
       </c>
       <c r="G85">
         <f t="shared" si="8"/>
@@ -4293,15 +4293,15 @@
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30392447652125354</v>
+        <v>0.73117357995155496</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3475653654710857</v>
+        <v>15.764272635509688</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="7"/>
-        <v>1021.2473423010065</v>
+        <v>1045.4670354627078</v>
       </c>
       <c r="G86">
         <f t="shared" si="8"/>
@@ -4315,15 +4315,15 @@
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32345845883538171</v>
+        <v>0.48412927098993352</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6891371269791335</v>
+        <v>7.9427888407384533</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="7"/>
-        <v>1025.9364794279857</v>
+        <v>1053.4098243034464</v>
       </c>
       <c r="G87">
         <f t="shared" si="8"/>
@@ -4337,15 +4337,15 @@
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34020656776270397</v>
+        <v>0.5027575185571781</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9899416929107234</v>
+        <v>8.3841297796588989</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="7"/>
-        <v>1030.9264211208963</v>
+        <v>1061.7939540831053</v>
       </c>
       <c r="G88">
         <f t="shared" si="8"/>
@@ -4359,15 +4359,15 @@
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31733479866642866</v>
+        <v>5.0871317669553773E-2</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5810087357261411</v>
+        <v>0.62653070094642838</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="7"/>
-        <v>1035.5074298566224</v>
+        <v>1062.4204847840517</v>
       </c>
       <c r="G89">
         <f t="shared" si="8"/>
@@ -4381,15 +4381,15 @@
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74266462931733979</v>
+        <v>0.38897506503736368</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>16.288501205954574</v>
+        <v>5.911410126685233</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="7"/>
-        <v>1051.795931062577</v>
+        <v>1068.331894910737</v>
       </c>
       <c r="G90">
         <f t="shared" si="8"/>
@@ -4403,15 +4403,15 @@
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37334067959763784</v>
+        <v>0.32987242056705957</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6082268158858248</v>
+        <v>4.8034460119207578</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="7"/>
-        <v>1057.4041578784629</v>
+        <v>1073.1353409226579</v>
       </c>
       <c r="G91">
         <f t="shared" si="8"/>
@@ -4425,15 +4425,15 @@
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27594798703624024</v>
+        <v>0.31069169391528673</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8747045768004509</v>
+        <v>4.4647996696143952</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="7"/>
-        <v>1061.2788624552634</v>
+        <v>1077.6001405922723</v>
       </c>
       <c r="G92">
         <f t="shared" si="8"/>
@@ -4447,15 +4447,15 @@
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67230075636637976</v>
+        <v>0.26619457692358384</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>13.387908376633977</v>
+        <v>3.7141365202445158</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="7"/>
-        <v>1074.6667708318973</v>
+        <v>1081.3142771125167</v>
       </c>
       <c r="G93">
         <f t="shared" si="8"/>
@@ -4469,15 +4469,15 @@
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98111188982320219</v>
+        <v>0.70063170803564556</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>47.630671752625688</v>
+        <v>14.472968614411737</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="7"/>
-        <v>1122.297442584523</v>
+        <v>1095.7872457269284</v>
       </c>
       <c r="G94">
         <f t="shared" si="8"/>
@@ -4491,15 +4491,15 @@
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76475300016520043</v>
+        <v>0.13828352792211296</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>17.365431044295313</v>
+        <v>1.7859477735265492</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="7"/>
-        <v>1139.6628736288183</v>
+        <v>1097.5731935004549</v>
       </c>
       <c r="G95">
         <f t="shared" si="8"/>
@@ -4513,15 +4513,15 @@
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73709449879112421</v>
+        <v>0.66940157604246808</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>16.031527468378826</v>
+        <v>13.282210329902078</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="7"/>
-        <v>1155.694401097197</v>
+        <v>1110.8554038303569</v>
       </c>
       <c r="G96">
         <f t="shared" si="8"/>
@@ -4535,15 +4535,15 @@
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89242535919786548</v>
+        <v>0.82591202309388989</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>26.754844071707687</v>
+        <v>20.978333917734826</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="7"/>
-        <v>1182.4492451689048</v>
+        <v>1131.8337377480916</v>
       </c>
       <c r="G97">
         <f t="shared" si="8"/>
@@ -4557,15 +4557,15 @@
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63835616153532393</v>
+        <v>0.64438589629678888</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>12.205145077443742</v>
+        <v>12.406909373055893</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="7"/>
-        <v>1194.6543902463486</v>
+        <v>1144.2406471211475</v>
       </c>
       <c r="G98">
         <f t="shared" si="8"/>
@@ -4579,15 +4579,15 @@
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56221037785842432</v>
+        <v>0.93100599541627038</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="6"/>
-        <v>9.9122015848683489</v>
+        <v>32.084828019010985</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>1204.566591831217</v>
+        <v>1176.3254751401585</v>
       </c>
       <c r="G99">
         <f t="shared" si="8"/>
@@ -4601,15 +4601,15 @@
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83396180139926668</v>
+        <v>0.8536931503748989</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="6"/>
-        <v>21.546448860536408</v>
+        <v>23.064589836181408</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>1226.1130406917534</v>
+        <v>1199.3900649763398</v>
       </c>
       <c r="G100">
         <f t="shared" si="8"/>
@@ -4623,15 +4623,15 @@
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48138223492504251</v>
+        <v>0.50605153643890666</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="6"/>
-        <v>7.879057807576328</v>
+        <v>8.4638891041384454</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>1233.9920984993298</v>
+        <v>1207.8539540804782</v>
       </c>
       <c r="G101">
         <f t="shared" si="8"/>
@@ -4645,15 +4645,15 @@
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80536219169441325</v>
+        <v>4.3256068598484188E-2</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="6"/>
-        <v>19.63937808980333</v>
+        <v>0.53063397151989489</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="7"/>
-        <v>1253.6314765891332</v>
+        <v>1208.384588051998</v>
       </c>
       <c r="G102">
         <f t="shared" si="8"/>
@@ -4667,15 +4667,15 @@
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31202068185702403</v>
+        <v>0.11424643567734727</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="6"/>
-        <v>4.487958028071926</v>
+        <v>1.455798134059922</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="7"/>
-        <v>1258.1194346172051</v>
+        <v>1209.8403861860579</v>
       </c>
       <c r="G103">
         <f t="shared" si="8"/>
@@ -4689,15 +4689,15 @@
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8921248710981025E-2</v>
+        <v>0.7754404053160624</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6019009312656407</v>
+        <v>17.92336982237412</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="7"/>
-        <v>1258.7213355484707</v>
+        <v>1227.763756008432</v>
       </c>
       <c r="G104">
         <f t="shared" si="8"/>
@@ -4717,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="17">
-        <v>8.6021505376344086E-4</v>
+        <v>8.6021505376344097E-4</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -4912,7 +4912,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="17">
-        <v>0.13879105188005711</v>
+        <v>0.138791051880057</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4935,7 +4935,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="17">
-        <v>0.21776251771624394</v>
+        <v>0.217762517716244</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -4958,7 +4958,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="17">
-        <v>0.3081646999630876</v>
+        <v>0.30816469996308798</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
